--- a/separarRelatorio/separarNeomater.xlsx
+++ b/separarRelatorio/separarNeomater.xlsx
@@ -15,267 +15,432 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="170">
   <si>
     <t>CISBAF x Marque fácil</t>
   </si>
   <si>
-    <t>Filtros aplicados: Modelo: Analitico | Visualização: MUNICIPIO | Agrupamento: Municipio | Situação: AGENDADO, REALIZADO | Período: 14/12/2025 a 19/01/2026 | Fornecedor: 94</t>
+    <t>Filtros aplicados: Modelo: Analitico | Visualização: MUNICIPIO | Agrupamento: Municipio | Situação: VALIDADO | Período: 20/10/2025 a 19/11/2025 | Fornecedor: 94</t>
+  </si>
+  <si>
+    <t>MUNICIPIO: RJ - Belford Roxo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data / Hora </t>
+  </si>
+  <si>
+    <t>Paciente</t>
+  </si>
+  <si>
+    <t>Data de Nascimento</t>
+  </si>
+  <si>
+    <t>Procedimento</t>
+  </si>
+  <si>
+    <t>Quantidade</t>
+  </si>
+  <si>
+    <t>Valor Regional</t>
+  </si>
+  <si>
+    <t>Contraste</t>
+  </si>
+  <si>
+    <t>Sedação</t>
+  </si>
+  <si>
+    <t>Valor SUS</t>
+  </si>
+  <si>
+    <t>Valor Total</t>
+  </si>
+  <si>
+    <t>20/10/2025 11:00</t>
+  </si>
+  <si>
+    <t>HEITOR LUCAS ALMEIDA</t>
+  </si>
+  <si>
+    <t>20/05/2021</t>
+  </si>
+  <si>
+    <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+  </si>
+  <si>
+    <t>R$ 290,00</t>
+  </si>
+  <si>
+    <t>R$ 0,00</t>
+  </si>
+  <si>
+    <t>R$ 10,00</t>
+  </si>
+  <si>
+    <t>R$ 300,00</t>
+  </si>
+  <si>
+    <t>MARLON MIGUEL MOREIRA SANTOS DA SILVA</t>
+  </si>
+  <si>
+    <t>23/12/2022</t>
+  </si>
+  <si>
+    <t>JOAO RICARDO FERNANDES JOAQUIM DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>02/05/2017</t>
+  </si>
+  <si>
+    <t>25/10/2025 07:00</t>
+  </si>
+  <si>
+    <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+  </si>
+  <si>
+    <t>R$ 4.802,07</t>
+  </si>
+  <si>
+    <t>R$ 434,99</t>
+  </si>
+  <si>
+    <t>R$ 5.237,06</t>
+  </si>
+  <si>
+    <t>POSTECTOMIA - PEDIATRICO</t>
+  </si>
+  <si>
+    <t>R$ 4.630,88</t>
+  </si>
+  <si>
+    <t>R$ 219,12</t>
+  </si>
+  <si>
+    <t>R$ 4.850,00</t>
+  </si>
+  <si>
+    <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+  </si>
+  <si>
+    <t>R$ 5.239,94</t>
+  </si>
+  <si>
+    <t>R$ 610,06</t>
+  </si>
+  <si>
+    <t>R$ 5.850,00</t>
+  </si>
+  <si>
+    <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+  </si>
+  <si>
+    <t>R$ 6.772,46</t>
+  </si>
+  <si>
+    <t>R$ 385,32</t>
+  </si>
+  <si>
+    <t>R$ 7.157,78</t>
+  </si>
+  <si>
+    <t>27/10/2025 11:00</t>
+  </si>
+  <si>
+    <t>ALLANA SAMARA BARRETO ALVES DA SILVA</t>
+  </si>
+  <si>
+    <t>26/07/2021</t>
+  </si>
+  <si>
+    <t>ISADORA MACHADO MACEDO</t>
+  </si>
+  <si>
+    <t>05/02/2021</t>
+  </si>
+  <si>
+    <t>JOHN LUCCA DIAS GUILHERME</t>
+  </si>
+  <si>
+    <t>26/03/2019</t>
+  </si>
+  <si>
+    <t>ANNA MIRELLA DA SILVA GRILLO</t>
+  </si>
+  <si>
+    <t>16/11/2015</t>
+  </si>
+  <si>
+    <t>28/10/2025 07:00</t>
+  </si>
+  <si>
+    <t>28/10/2025 15:00</t>
+  </si>
+  <si>
+    <t>03/11/2025 11:00</t>
+  </si>
+  <si>
+    <t>LENDROLEO VINICIUS DOS SANTOS SILVA</t>
+  </si>
+  <si>
+    <t>12/03/2020</t>
+  </si>
+  <si>
+    <t>THIAGO BATISTA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>03/04/2015</t>
+  </si>
+  <si>
+    <t>08/11/2025 07:00</t>
+  </si>
+  <si>
+    <t>10/11/2025 15:00</t>
+  </si>
+  <si>
+    <t>Total do grupo:</t>
+  </si>
+  <si>
+    <t>R$ 86.844,43</t>
+  </si>
+  <si>
+    <t>R$ 7.096,89</t>
+  </si>
+  <si>
+    <t>R$ 93.941,32</t>
+  </si>
+  <si>
+    <t>MUNICIPIO: RJ - Itaguaí</t>
+  </si>
+  <si>
+    <t>KAIQUE DE SA GONCALVES</t>
+  </si>
+  <si>
+    <t>17/05/2017</t>
+  </si>
+  <si>
+    <t>R$ 10.160,82</t>
+  </si>
+  <si>
+    <t>R$ 839,18</t>
+  </si>
+  <si>
+    <t>R$ 11.000,00</t>
   </si>
   <si>
     <t>MUNICIPIO: RJ - Japeri</t>
   </si>
   <si>
-    <t xml:space="preserve">Data / Hora </t>
-  </si>
-  <si>
-    <t>Paciente</t>
-  </si>
-  <si>
-    <t>Data de Nascimento</t>
-  </si>
-  <si>
-    <t>Procedimento</t>
-  </si>
-  <si>
-    <t>Quantidade</t>
-  </si>
-  <si>
-    <t>Valor Regional</t>
-  </si>
-  <si>
-    <t>Contraste</t>
-  </si>
-  <si>
-    <t>Sedação</t>
-  </si>
-  <si>
-    <t>Valor SUS</t>
-  </si>
-  <si>
-    <t>Valor Total</t>
-  </si>
-  <si>
-    <t>22/12/2025 11:00</t>
-  </si>
-  <si>
-    <t>ADRIELLY VICTORIA DE ASSIS DOS SANTOS</t>
-  </si>
-  <si>
-    <t>16/01/2012</t>
-  </si>
-  <si>
-    <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-  </si>
-  <si>
-    <t>R$ 290,00</t>
-  </si>
-  <si>
-    <t>R$ 0,00</t>
-  </si>
-  <si>
-    <t>R$ 10,00</t>
-  </si>
-  <si>
-    <t>R$ 300,00</t>
-  </si>
-  <si>
-    <t>THALLIS LUIZ VELOZO GUEDES</t>
-  </si>
-  <si>
-    <t>05/05/2015</t>
-  </si>
-  <si>
-    <t>ROMULO GUSTAVO DANTAS FERNANDES</t>
-  </si>
-  <si>
-    <t>26/10/2018</t>
-  </si>
-  <si>
-    <t>29/12/2025 07:00</t>
-  </si>
-  <si>
-    <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-  </si>
-  <si>
-    <t>R$ 5.239,94</t>
-  </si>
-  <si>
-    <t>R$ 610,06</t>
-  </si>
-  <si>
-    <t>R$ 5.850,00</t>
-  </si>
-  <si>
-    <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-  </si>
-  <si>
-    <t>R$ 4.802,07</t>
-  </si>
-  <si>
-    <t>R$ 434,99</t>
-  </si>
-  <si>
-    <t>R$ 5.237,06</t>
-  </si>
-  <si>
-    <t>Total do grupo:</t>
-  </si>
-  <si>
-    <t>R$ 20.516,15</t>
-  </si>
-  <si>
-    <t>R$ 1.945,03</t>
-  </si>
-  <si>
-    <t>R$ 22.461,18</t>
+    <t>YURI MARTINS DE AZEVEDO</t>
+  </si>
+  <si>
+    <t>18/01/2016</t>
+  </si>
+  <si>
+    <t>MARIA EDUARDA DOS SANTOS SILVA</t>
+  </si>
+  <si>
+    <t>13/03/2019</t>
+  </si>
+  <si>
+    <t>RIQUELME DA SILVA COSTA</t>
+  </si>
+  <si>
+    <t>06/08/2016</t>
+  </si>
+  <si>
+    <t>17/11/2025 11:00</t>
+  </si>
+  <si>
+    <t>BERNARDO DE PAULA MINEIRO SANTOS</t>
+  </si>
+  <si>
+    <t>30/09/2015</t>
+  </si>
+  <si>
+    <t>18/11/2025 07:00</t>
+  </si>
+  <si>
+    <t>18/11/2025 11:00</t>
+  </si>
+  <si>
+    <t>R$ 41.642,44</t>
+  </si>
+  <si>
+    <t>R$ 3.213,58</t>
+  </si>
+  <si>
+    <t>R$ 44.856,02</t>
   </si>
   <si>
     <t>MUNICIPIO: RJ - Mesquita</t>
   </si>
   <si>
-    <t>DAVI LUCAS MARQUES LIMA</t>
-  </si>
-  <si>
-    <t>29/11/2015</t>
-  </si>
-  <si>
-    <t>RYAN DA SILVA ESCOBAR</t>
-  </si>
-  <si>
-    <t>16/03/2014</t>
-  </si>
-  <si>
-    <t>STELLA ALMEIDA DE SOUZA</t>
-  </si>
-  <si>
-    <t>10/11/2020</t>
-  </si>
-  <si>
-    <t>POSTECTOMIA - PEDIATRICO</t>
-  </si>
-  <si>
-    <t>R$ 4.630,88</t>
-  </si>
-  <si>
-    <t>R$ 219,12</t>
-  </si>
-  <si>
-    <t>R$ 4.850,00</t>
-  </si>
-  <si>
-    <t>R$ 19.735,90</t>
-  </si>
-  <si>
-    <t>R$ 1.338,22</t>
-  </si>
-  <si>
-    <t>R$ 21.074,12</t>
+    <t>BRAYAN BAPTISTA EDMUNDO</t>
+  </si>
+  <si>
+    <t>26/06/2019</t>
+  </si>
+  <si>
+    <t>NICOLLAS SOUZA DE JESUS</t>
+  </si>
+  <si>
+    <t>01/06/2015</t>
+  </si>
+  <si>
+    <t>ITALO SANTOS DE SAO JUSTO</t>
+  </si>
+  <si>
+    <t>31/12/2021</t>
+  </si>
+  <si>
+    <t>GUILHERME ROMAO DA SILVA</t>
+  </si>
+  <si>
+    <t>21/08/2017</t>
+  </si>
+  <si>
+    <t>GAEL ARAUJO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>17/10/2019</t>
+  </si>
+  <si>
+    <t>PIETRO DANIEL SANTOS MACHADO</t>
+  </si>
+  <si>
+    <t>28/05/2017</t>
+  </si>
+  <si>
+    <t>PEDRO PATRICK PONTES DE LIMA</t>
+  </si>
+  <si>
+    <t>09/05/2020</t>
+  </si>
+  <si>
+    <t>JOAO ARTHUR FERNANDES DE VASCONCELOS</t>
+  </si>
+  <si>
+    <t>31/08/2019</t>
+  </si>
+  <si>
+    <t>07/11/2025 07:00</t>
+  </si>
+  <si>
+    <t>R$ 64.924,36</t>
+  </si>
+  <si>
+    <t>R$ 3.598,98</t>
+  </si>
+  <si>
+    <t>R$ 68.523,34</t>
   </si>
   <si>
     <t>MUNICIPIO: RJ - Nova Iguaçu</t>
   </si>
   <si>
-    <t>17/12/2025 11:00</t>
-  </si>
-  <si>
-    <t>MICHAEL JANUARIO MACHADO DE FARIAS</t>
-  </si>
-  <si>
-    <t>05/02/2016</t>
-  </si>
-  <si>
-    <t>MARIA JULIA OLIVEIRA FIRMINO</t>
-  </si>
-  <si>
-    <t>02/09/2023</t>
-  </si>
-  <si>
-    <t>PEDRO HENRIQUE DE OLIVEIRA CAETANO</t>
-  </si>
-  <si>
-    <t>04/11/2019</t>
-  </si>
-  <si>
-    <t>LAIS PEREIRA ALMEIDA</t>
-  </si>
-  <si>
-    <t>25/06/2019</t>
-  </si>
-  <si>
-    <t>LAVINIA ARAUJO DE ALMEIDA</t>
-  </si>
-  <si>
-    <t>10/08/2020</t>
-  </si>
-  <si>
-    <t>19/12/2025 07:00</t>
-  </si>
-  <si>
-    <t>R$ 30.700,29</t>
-  </si>
-  <si>
-    <t>R$ 2.835,01</t>
-  </si>
-  <si>
-    <t>R$ 33.535,30</t>
+    <t>KAIQUE ANTUNES MARQUES</t>
+  </si>
+  <si>
+    <t>09/08/2013</t>
+  </si>
+  <si>
+    <t>JASMYNE DE SOUZA BARRETO</t>
+  </si>
+  <si>
+    <t>09/08/2019</t>
+  </si>
+  <si>
+    <t>LUISA DE SOUZA FORTES</t>
+  </si>
+  <si>
+    <t>30/04/2020</t>
+  </si>
+  <si>
+    <t>LUAN VITOR MAGALHAES OLIVEIRA</t>
+  </si>
+  <si>
+    <t>08/11/2013</t>
+  </si>
+  <si>
+    <t>RAFAELLA VENTURA DE SALES</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>DAVI CORTEIS TEOFILO SOARES</t>
+  </si>
+  <si>
+    <t>05/08/2013</t>
+  </si>
+  <si>
+    <t>FABIO ALVES DE MIRANDA</t>
+  </si>
+  <si>
+    <t>09/04/2018</t>
+  </si>
+  <si>
+    <t>OTHON ESTEVES LEMOS</t>
+  </si>
+  <si>
+    <t>16/04/2022</t>
+  </si>
+  <si>
+    <t>24/10/2025 07:00</t>
+  </si>
+  <si>
+    <t>R$ 58.008,69</t>
+  </si>
+  <si>
+    <t>R$ 4.436,15</t>
+  </si>
+  <si>
+    <t>R$ 62.444,84</t>
   </si>
   <si>
     <t>MUNICIPIO: RJ - Queimados</t>
   </si>
   <si>
-    <t>THEO DOS SANTOS DA COSTA</t>
-  </si>
-  <si>
-    <t>29/10/2021</t>
-  </si>
-  <si>
-    <t>ENZO GABRIEL VIEIRA LAMEIRA</t>
-  </si>
-  <si>
-    <t>14/02/2012</t>
-  </si>
-  <si>
-    <t>SUSAN SOPHIA OLIVEIRA DA SILVA</t>
-  </si>
-  <si>
-    <t>25/01/2022</t>
-  </si>
-  <si>
-    <t>GAEL DO NASCIMENTO LEGENTIL</t>
-  </si>
-  <si>
-    <t>01/03/2024</t>
-  </si>
-  <si>
-    <t>IURY DE SOUZA QUEIROZ</t>
-  </si>
-  <si>
-    <t>14/05/2023</t>
-  </si>
-  <si>
-    <t>RAVI BATISTA DOS SANTOS</t>
-  </si>
-  <si>
-    <t>05/09/2022</t>
-  </si>
-  <si>
-    <t>ISRAEL PHELIPE ARAUJO DA SILVA NUNES</t>
-  </si>
-  <si>
-    <t>11/11/2020</t>
-  </si>
-  <si>
-    <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
-  </si>
-  <si>
-    <t>R$ 6.772,46</t>
-  </si>
-  <si>
-    <t>R$ 385,32</t>
-  </si>
-  <si>
-    <t>R$ 7.157,78</t>
+    <t>PEDRO LUCAS RIBEIRO JULIAO DE SOUZA</t>
+  </si>
+  <si>
+    <t>28/07/2020</t>
+  </si>
+  <si>
+    <t>R$ 4.920,88</t>
+  </si>
+  <si>
+    <t>R$ 229,12</t>
+  </si>
+  <si>
+    <t>R$ 5.150,00</t>
+  </si>
+  <si>
+    <t>MUNICIPIO: RJ - São João de Meriti</t>
+  </si>
+  <si>
+    <t>HENRY DE SOUZA MARIA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>27/05/2017</t>
+  </si>
+  <si>
+    <t>HUGO LUIS FRANCELINO MANILHA</t>
+  </si>
+  <si>
+    <t>11/04/2016</t>
+  </si>
+  <si>
+    <t>LUIDY GABRIEL DE SOUZA EMIDIO</t>
+  </si>
+  <si>
+    <t>12/06/2021</t>
+  </si>
+  <si>
+    <t>DAVI HENRIQUE DE ASSIS DO ROZARIO</t>
+  </si>
+  <si>
+    <t>13/05/2020</t>
   </si>
   <si>
     <t>CORRECAO DE HIPOSPADIA (1º TEMPO) - PEDIATRICO</t>
@@ -290,112 +455,49 @@
     <t>R$ 6.608,86</t>
   </si>
   <si>
-    <t>22/12/2025 07:00</t>
-  </si>
-  <si>
-    <t>05/01/2026 11:00</t>
-  </si>
-  <si>
-    <t>KEVIN OLIVEIRA BRITO DE JESUS</t>
-  </si>
-  <si>
-    <t>29/01/2014</t>
-  </si>
-  <si>
-    <t>MIGUEL DE MATTOS SALES</t>
-  </si>
-  <si>
-    <t>28/08/2019</t>
-  </si>
-  <si>
-    <t>ABNNER DOS SANTOS NASCIMENTO</t>
-  </si>
-  <si>
-    <t>15/04/2020</t>
-  </si>
-  <si>
-    <t>BERNARDO DAVI SOUSA VENANCIO</t>
-  </si>
-  <si>
-    <t>29/01/2018</t>
-  </si>
-  <si>
-    <t>MICAEL ANTONIO RODRIGUES PONTES</t>
-  </si>
-  <si>
-    <t>01/01/2020</t>
-  </si>
-  <si>
-    <t>09/01/2026 07:00</t>
-  </si>
-  <si>
-    <t>R$ 95.502,64</t>
-  </si>
-  <si>
-    <t>R$ 6.545,90</t>
-  </si>
-  <si>
-    <t>R$ 102.048,54</t>
-  </si>
-  <si>
-    <t>MUNICIPIO: RJ - São João de Meriti</t>
-  </si>
-  <si>
-    <t>CALEB NASCIMENTO FERREIRA</t>
-  </si>
-  <si>
-    <t>09/09/2021</t>
-  </si>
-  <si>
-    <t>DAVI LUCAS NASCIMENTO DA SILVA</t>
-  </si>
-  <si>
-    <t>13/08/2018</t>
-  </si>
-  <si>
-    <t>ARTHUR MIGUEL MARQUES ARCANJO</t>
-  </si>
-  <si>
-    <t>28/01/2020</t>
-  </si>
-  <si>
-    <t>GUSTTAVO MUNIZ DE SOUZA</t>
-  </si>
-  <si>
-    <t>22/11/2016</t>
-  </si>
-  <si>
-    <t>PEDRO HENRIQUE DA S DE PAULA</t>
-  </si>
-  <si>
-    <t>15/10/2014</t>
-  </si>
-  <si>
-    <t>JOAO PEDRO DE AZEVEDO DE SOUZA</t>
-  </si>
-  <si>
-    <t>31/03/2018</t>
-  </si>
-  <si>
-    <t>MAICON BRYAN TORRES DE ANDRADE RABELO</t>
-  </si>
-  <si>
-    <t>03/11/2014</t>
-  </si>
-  <si>
-    <t>MICHEL FELICIANO CALIXTE</t>
-  </si>
-  <si>
-    <t>09/10/2022</t>
-  </si>
-  <si>
-    <t>R$ 45.387,23</t>
-  </si>
-  <si>
-    <t>R$ 3.049,83</t>
-  </si>
-  <si>
-    <t>R$ 48.437,06</t>
+    <t>R$ 25.919,42</t>
+  </si>
+  <si>
+    <t>R$ 1.289,44</t>
+  </si>
+  <si>
+    <t>R$ 27.208,86</t>
+  </si>
+  <si>
+    <t>MUNICIPIO: RJ - Seropédica</t>
+  </si>
+  <si>
+    <t>samuel da silva pessoa</t>
+  </si>
+  <si>
+    <t>27/02/2014</t>
+  </si>
+  <si>
+    <t>ENZO GABRIEL NASCIMENTO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>11/02/2015</t>
+  </si>
+  <si>
+    <t>GABRYELLA MARTINS DA SILVA</t>
+  </si>
+  <si>
+    <t>22/10/2018</t>
+  </si>
+  <si>
+    <t>RIQUELME TAVARES ALMEIDA</t>
+  </si>
+  <si>
+    <t>23/05/2020</t>
+  </si>
+  <si>
+    <t>R$ 30.848,16</t>
+  </si>
+  <si>
+    <t>R$ 3.000,08</t>
+  </si>
+  <si>
+    <t>R$ 33.848,24</t>
   </si>
   <si>
     <t>Quantidade total</t>
@@ -404,7 +506,7 @@
     <t>Total regional</t>
   </si>
   <si>
-    <t>R$ 211.842,21</t>
+    <t>R$ 323.269,20</t>
   </si>
   <si>
     <t>Total contraste</t>
@@ -416,13 +518,13 @@
     <t>Total valor SUS</t>
   </si>
   <si>
-    <t>R$ 15.713,99</t>
+    <t>R$ 23.703,42</t>
   </si>
   <si>
     <t>Total valor geral</t>
   </si>
   <si>
-    <t>R$ 227.556,20</t>
+    <t>R$ 346.972,62</t>
   </si>
 </sst>
 </file>
@@ -903,16 +1005,16 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J95"/>
+  <dimension ref="A1:J133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="J95" sqref="J95"/>
+      <selection activeCell="J133" sqref="J133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="37.419" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="44.703" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="49.417" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="24.565" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="56.558" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="22.28" bestFit="true" customWidth="true" style="0"/>
@@ -1080,10 +1182,10 @@
         <v>25</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>26</v>
@@ -1112,19 +1214,19 @@
         <v>25</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E12" s="7">
         <v>1</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>18</v>
@@ -1133,10 +1235,10 @@
         <v>18</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1144,19 +1246,19 @@
         <v>25</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E13" s="10">
         <v>1</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>18</v>
@@ -1165,10 +1267,10 @@
         <v>18</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1204,92 +1306,119 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="14">
-        <v>7</v>
-      </c>
-      <c r="F15" s="13" t="s">
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="13" t="s">
+      <c r="G15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="J15" s="12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>12</v>
+      <c r="A17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E18" s="7">
         <v>1</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>18</v>
@@ -1298,30 +1427,30 @@
         <v>18</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="10" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E19" s="10">
         <v>1</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>18</v>
@@ -1330,15 +1459,15 @@
         <v>18</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="7" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>43</v>
@@ -1370,22 +1499,22 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="10" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="E21" s="10">
         <v>1</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="G21" s="12" t="s">
         <v>18</v>
@@ -1394,30 +1523,30 @@
         <v>18</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="7" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="E22" s="7">
         <v>1</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>18</v>
@@ -1426,30 +1555,30 @@
         <v>18</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="10" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E23" s="10">
         <v>1</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>18</v>
@@ -1458,15 +1587,15 @@
         <v>18</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="7" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>43</v>
@@ -1475,13 +1604,13 @@
         <v>44</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E24" s="7">
         <v>1</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>18</v>
@@ -1490,99 +1619,126 @@
         <v>18</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="14">
-        <v>7</v>
-      </c>
-      <c r="F25" s="13" t="s">
+      <c r="A25" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G25" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="13" t="s">
+      <c r="C25" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J25" s="13" t="s">
+      <c r="D25" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="10">
+        <v>1</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="B26" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>12</v>
+      <c r="A27" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="10">
+        <v>1</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E28" s="7">
         <v>1</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>18</v>
@@ -1591,10 +1747,10 @@
         <v>18</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1602,10 +1758,10 @@
         <v>53</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>16</v>
@@ -1634,10 +1790,10 @@
         <v>53</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>16</v>
@@ -1663,22 +1819,22 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E31" s="10">
         <v>1</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>18</v>
@@ -1687,30 +1843,30 @@
         <v>18</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E32" s="7">
         <v>1</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>18</v>
@@ -1719,15 +1875,15 @@
         <v>18</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>54</v>
@@ -1758,764 +1914,710 @@
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="14">
+        <v>26</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="8" t="s">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="10">
+        <v>1</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="7">
-        <v>1</v>
-      </c>
-      <c r="F34" s="9" t="s">
+      <c r="E39" s="7">
+        <v>1</v>
+      </c>
+      <c r="F39" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G34" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I34" s="9" t="s">
+      <c r="G39" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="J39" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="11" t="s">
+    <row r="40" spans="1:10">
+      <c r="A40" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="11" t="s">
+      <c r="E40" s="14">
+        <v>3</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="7">
+        <v>1</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="10">
+        <v>1</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="7">
+        <v>1</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="10">
+        <v>1</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="10">
-        <v>1</v>
-      </c>
-      <c r="F35" s="12" t="s">
+      <c r="E47" s="7">
+        <v>1</v>
+      </c>
+      <c r="F47" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G35" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="12" t="s">
+      <c r="G47" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J35" s="12" t="s">
+      <c r="J47" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" s="8" t="s">
+    <row r="48" spans="1:10">
+      <c r="A48" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="10">
+        <v>1</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="8" t="s">
+      <c r="B49" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="7">
+        <v>1</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="10">
+        <v>1</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="7">
-        <v>1</v>
-      </c>
-      <c r="F36" s="9" t="s">
+      <c r="E51" s="7">
+        <v>1</v>
+      </c>
+      <c r="F51" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" s="9" t="s">
+      <c r="G51" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J36" s="9" t="s">
+      <c r="J51" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="11" t="s">
+    <row r="52" spans="1:10">
+      <c r="A52" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="10">
+        <v>1</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="10">
-        <v>1</v>
-      </c>
-      <c r="F37" s="12" t="s">
+      <c r="E53" s="7">
+        <v>1</v>
+      </c>
+      <c r="F53" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G37" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" s="12" t="s">
+      <c r="G53" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="J37" s="12" t="s">
+      <c r="J53" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="13" t="s">
+    <row r="54" spans="1:10">
+      <c r="A54" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E54" s="10">
+        <v>1</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E55" s="14">
+        <v>12</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="J39" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J41" s="6" t="s">
+      <c r="J57" s="6" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="7">
-        <v>1</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="10">
-        <v>1</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J43" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" s="7">
-        <v>1</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="10">
-        <v>1</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J45" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" s="7">
-        <v>1</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E47" s="10">
-        <v>1</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J47" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" s="7">
-        <v>1</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E49" s="10">
-        <v>1</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="J49" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E50" s="7">
-        <v>1</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" s="10">
-        <v>1</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I51" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J51" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E52" s="7">
-        <v>1</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E53" s="10">
-        <v>1</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I53" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="J53" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E54" s="7">
-        <v>1</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E55" s="10">
-        <v>1</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I55" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J55" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E56" s="7">
-        <v>1</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G56" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57" s="10">
-        <v>1</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H57" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I57" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J57" s="12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="7" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="E58" s="7">
         <v>1</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="G58" s="9" t="s">
         <v>18</v>
@@ -2524,30 +2626,30 @@
         <v>18</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="10" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E59" s="10">
         <v>1</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G59" s="12" t="s">
         <v>18</v>
@@ -2556,30 +2658,30 @@
         <v>18</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="7" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E60" s="7">
         <v>1</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G60" s="9" t="s">
         <v>18</v>
@@ -2588,30 +2690,30 @@
         <v>18</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="10" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E61" s="10">
         <v>1</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G61" s="12" t="s">
         <v>18</v>
@@ -2620,21 +2722,21 @@
         <v>18</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="7" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>16</v>
@@ -2660,13 +2762,13 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="B63" s="11" t="s">
-        <v>95</v>
-      </c>
       <c r="C63" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>16</v>
@@ -2692,13 +2794,13 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="7" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>16</v>
@@ -2724,13 +2826,13 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="10" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>16</v>
@@ -2756,13 +2858,13 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="7" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>16</v>
@@ -2788,22 +2890,22 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="10" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="E67" s="10">
         <v>1</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="G67" s="12" t="s">
         <v>18</v>
@@ -2812,30 +2914,30 @@
         <v>18</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E68" s="7">
         <v>1</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G68" s="9" t="s">
         <v>18</v>
@@ -2844,30 +2946,30 @@
         <v>18</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E69" s="10">
         <v>1</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G69" s="12" t="s">
         <v>18</v>
@@ -2876,30 +2978,30 @@
         <v>18</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E70" s="7">
         <v>1</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G70" s="9" t="s">
         <v>18</v>
@@ -2908,314 +3010,314 @@
         <v>18</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E71" s="10">
+        <v>1</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J71" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" s="7">
+        <v>1</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E73" s="10">
+        <v>1</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I73" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J73" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E74" s="7">
+        <v>1</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E75" s="10">
+        <v>1</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J75" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E76" s="7">
+        <v>1</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E77" s="10">
+        <v>1</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J77" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E78" s="14">
+        <v>20</v>
+      </c>
+      <c r="F78" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B71" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E71" s="10">
-        <v>1</v>
-      </c>
-      <c r="F71" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I71" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="J71" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E72" s="14">
-        <v>30</v>
-      </c>
-      <c r="F72" s="13" t="s">
+      <c r="G78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="G72" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H72" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I72" s="13" t="s">
+      <c r="J78" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="J72" s="13" t="s">
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="4" t="s">
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B80" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C80" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D80" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="E80" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="F80" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="G80" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H74" s="6" t="s">
+      <c r="H80" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I74" s="6" t="s">
+      <c r="I80" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J74" s="6" t="s">
+      <c r="J80" s="6" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E75" s="7">
-        <v>1</v>
-      </c>
-      <c r="F75" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I75" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J75" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D76" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E76" s="10">
-        <v>1</v>
-      </c>
-      <c r="F76" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H76" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I76" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J76" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E77" s="7">
-        <v>1</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H77" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I77" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J77" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E78" s="10">
-        <v>1</v>
-      </c>
-      <c r="F78" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G78" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H78" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I78" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="J78" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E79" s="7">
-        <v>1</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I79" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J79" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E80" s="10">
-        <v>1</v>
-      </c>
-      <c r="F80" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="G80" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H80" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I80" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="J80" s="12" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="7" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>16</v>
@@ -3241,13 +3343,13 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="10" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D82" s="11" t="s">
         <v>16</v>
@@ -3273,13 +3375,13 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="7" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>16</v>
@@ -3305,13 +3407,13 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="10" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D84" s="11" t="s">
         <v>16</v>
@@ -3337,13 +3439,13 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="7" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>16</v>
@@ -3369,22 +3471,22 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="10" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E86" s="10">
         <v>1</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G86" s="12" t="s">
         <v>18</v>
@@ -3393,30 +3495,30 @@
         <v>18</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J86" s="12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="7" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="E87" s="7">
         <v>1</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="G87" s="9" t="s">
         <v>18</v>
@@ -3425,30 +3527,30 @@
         <v>18</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="10" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E88" s="10">
         <v>1</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G88" s="12" t="s">
         <v>18</v>
@@ -3457,30 +3559,30 @@
         <v>18</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="7" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E89" s="7">
         <v>1</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G89" s="9" t="s">
         <v>18</v>
@@ -3489,30 +3591,30 @@
         <v>18</v>
       </c>
       <c r="I89" s="9" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="10" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E90" s="10">
         <v>1</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G90" s="12" t="s">
         <v>18</v>
@@ -3521,120 +3623,1261 @@
         <v>18</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="7" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="B91" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E91" s="7">
+        <v>1</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H91" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E92" s="10">
+        <v>1</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H92" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I92" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J92" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C93" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="D93" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E93" s="7">
+        <v>1</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I93" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J93" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B94" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="D91" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E91" s="7">
-        <v>1</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G91" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H91" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I91" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="J91" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
-      <c r="A92" s="13" t="s">
+      <c r="C94" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E94" s="10">
+        <v>1</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H94" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I94" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J94" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D95" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E92" s="14">
+      <c r="E95" s="7">
+        <v>1</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H95" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I95" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J95" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E96" s="10">
+        <v>1</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I96" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J96" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E97" s="7">
+        <v>1</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H97" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I97" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E98" s="10">
+        <v>1</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H98" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I98" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J98" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E99" s="7">
+        <v>1</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I99" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E100" s="14">
+        <v>19</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G100" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H100" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I100" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J100" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H102" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I102" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103" s="7">
+        <v>1</v>
+      </c>
+      <c r="F103" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F92" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="G92" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H92" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I92" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="J92" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
-      <c r="E94" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F94" s="13" t="s">
+      <c r="G103" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I103" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B104" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="G94" s="13" t="s">
+      <c r="C104" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E104" s="10">
+        <v>1</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G104" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I104" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J104" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E105" s="14">
+        <v>2</v>
+      </c>
+      <c r="F105" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="H94" s="13" t="s">
+      <c r="G105" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H105" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I105" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="I94" s="13" t="s">
+      <c r="J105" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="J94" s="13" t="s">
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J107" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B108" s="8" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="E95" s="15">
-        <v>72</v>
-      </c>
-      <c r="F95" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="G95" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H95" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I95" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="J95" s="16" t="s">
+      <c r="C108" s="7" t="s">
         <v>135</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E108" s="7">
+        <v>1</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I108" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J108" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E109" s="10">
+        <v>1</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H109" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I109" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J109" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E110" s="7">
+        <v>1</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I110" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J110" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E111" s="10">
+        <v>1</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I111" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J111" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E112" s="7">
+        <v>1</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H112" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I112" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J112" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E113" s="10">
+        <v>1</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H113" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I113" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J113" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E114" s="7">
+        <v>1</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G114" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H114" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I114" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J114" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E115" s="10">
+        <v>1</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G115" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H115" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I115" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J115" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E116" s="7">
+        <v>1</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G116" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I116" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="J116" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E117" s="14">
+        <v>9</v>
+      </c>
+      <c r="F117" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G117" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H117" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I117" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J117" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I119" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J119" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E120" s="7">
+        <v>1</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J120" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B121" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E121" s="10">
+        <v>1</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H121" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I121" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J121" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E122" s="7">
+        <v>1</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G122" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H122" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I122" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J122" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E123" s="10">
+        <v>1</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I123" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J123" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E124" s="7">
+        <v>1</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H124" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I124" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J124" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E125" s="10">
+        <v>1</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G125" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H125" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I125" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J125" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E126" s="7">
+        <v>1</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G126" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H126" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I126" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J126" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E127" s="10">
+        <v>1</v>
+      </c>
+      <c r="F127" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G127" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H127" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I127" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J127" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E128" s="7">
+        <v>1</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G128" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H128" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I128" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J128" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E129" s="10">
+        <v>1</v>
+      </c>
+      <c r="F129" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G129" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H129" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I129" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J129" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E130" s="14">
+        <v>10</v>
+      </c>
+      <c r="F130" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="G130" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H130" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I130" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="J130" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="E132" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F132" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="G132" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="H132" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="I132" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="J132" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="E133" s="15">
+        <v>101</v>
+      </c>
+      <c r="F133" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G133" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H133" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I133" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="J133" s="16" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A73:J73"/>
-    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A41:J41"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A56:J56"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A79:J79"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A101:J101"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A106:J106"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A118:J118"/>
+    <mergeCell ref="A130:D130"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/separarRelatorio/separarNeomater.xlsx
+++ b/separarRelatorio/separarNeomater.xlsx
@@ -15,441 +15,570 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="197">
   <si>
     <t>CISBAF x Marque fácil</t>
   </si>
   <si>
-    <t>Filtros aplicados: Modelo: Analitico | Visualização: MUNICIPIO | Agrupamento: Fornecedor | Situação: VALIDADO | Prestadores: 94 | Período: 20/11/2025 a 14/12/2025</t>
+    <t>Filtros aplicados: Modelo: Analitico | Visualização: MUNICIPIO | Agrupamento: Municipio | Situação: AGENDADO, REALIZADO | Prestadores: 94 | Período: 14/12/2025 a 19/01/2026</t>
+  </si>
+  <si>
+    <t>MUNICIPIO: RJ - Belford Roxo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data / Hora </t>
+  </si>
+  <si>
+    <t>Paciente</t>
+  </si>
+  <si>
+    <t>Data de Nascimento</t>
+  </si>
+  <si>
+    <t>Procedimento</t>
+  </si>
+  <si>
+    <t>Quantidade</t>
+  </si>
+  <si>
+    <t>Valor Regional</t>
+  </si>
+  <si>
+    <t>Contraste</t>
+  </si>
+  <si>
+    <t>Sedação</t>
+  </si>
+  <si>
+    <t>Valor SUS</t>
+  </si>
+  <si>
+    <t>Valor Total</t>
+  </si>
+  <si>
+    <t>12/01/2026 11:00</t>
+  </si>
+  <si>
+    <t>VITORIA FERREIRA DE ARAUJO DA SILVA</t>
+  </si>
+  <si>
+    <t>25/06/2019</t>
+  </si>
+  <si>
+    <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
+  </si>
+  <si>
+    <t>R$ 290,00</t>
+  </si>
+  <si>
+    <t>R$ 0,00</t>
+  </si>
+  <si>
+    <t>R$ 10,00</t>
+  </si>
+  <si>
+    <t>R$ 300,00</t>
+  </si>
+  <si>
+    <t>DAVI LUCAS DA SILVA QUEIROZ</t>
+  </si>
+  <si>
+    <t>14/11/2016</t>
+  </si>
+  <si>
+    <t>BRYAN GONCALVES DUARTE</t>
+  </si>
+  <si>
+    <t>17/08/2018</t>
+  </si>
+  <si>
+    <t>ARTHUR GUEDES DA SILVA</t>
+  </si>
+  <si>
+    <t>16/11/2018</t>
+  </si>
+  <si>
+    <t>BENJAMIN DE SANTANA LEMOS DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>10/01/2023</t>
+  </si>
+  <si>
+    <t>ARYELLA GOMES DE MOURA</t>
+  </si>
+  <si>
+    <t>14/12/2018</t>
+  </si>
+  <si>
+    <t>HEITOR CORREIA LEMOS</t>
+  </si>
+  <si>
+    <t>06/11/2014</t>
+  </si>
+  <si>
+    <t>RENAN FERREIRA DA SILVA CASSIMIRO</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>NOAH RAVI SANTOS MARQUES</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>ANDREY CORREIA LEMOS</t>
+  </si>
+  <si>
+    <t>CRISTIAN ISAQUE DE OLIVEIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>03/09/2013</t>
+  </si>
+  <si>
+    <t>16/01/2026 07:00</t>
+  </si>
+  <si>
+    <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
+  </si>
+  <si>
+    <t>R$ 4.802,07</t>
+  </si>
+  <si>
+    <t>R$ 434,99</t>
+  </si>
+  <si>
+    <t>R$ 5.237,06</t>
+  </si>
+  <si>
+    <t>POSTECTOMIA - PEDIATRICO</t>
+  </si>
+  <si>
+    <t>R$ 4.630,88</t>
+  </si>
+  <si>
+    <t>R$ 219,12</t>
+  </si>
+  <si>
+    <t>R$ 4.850,00</t>
+  </si>
+  <si>
+    <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
+  </si>
+  <si>
+    <t>R$ 5.239,94</t>
+  </si>
+  <si>
+    <t>R$ 610,06</t>
+  </si>
+  <si>
+    <t>R$ 5.850,00</t>
+  </si>
+  <si>
+    <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
+  </si>
+  <si>
+    <t>R$ 6.772,46</t>
+  </si>
+  <si>
+    <t>R$ 385,32</t>
+  </si>
+  <si>
+    <t>R$ 7.157,78</t>
+  </si>
+  <si>
+    <t>17/01/2026 07:00</t>
+  </si>
+  <si>
+    <t>CORRECAO DE HIPOSPADIA (1º TEMPO) - PEDIATRICO</t>
+  </si>
+  <si>
+    <t>R$ 6.235,90</t>
+  </si>
+  <si>
+    <t>R$ 372,96</t>
+  </si>
+  <si>
+    <t>R$ 6.608,86</t>
+  </si>
+  <si>
+    <t>Total do grupo:</t>
+  </si>
+  <si>
+    <t>R$ 103.188,77</t>
+  </si>
+  <si>
+    <t>R$ 7.887,29</t>
+  </si>
+  <si>
+    <t>R$ 111.076,06</t>
+  </si>
+  <si>
+    <t>MUNICIPIO: RJ - Japeri</t>
+  </si>
+  <si>
+    <t>22/12/2025 11:00</t>
+  </si>
+  <si>
+    <t>ADRIELLY VICTORIA DE ASSIS DOS SANTOS</t>
+  </si>
+  <si>
+    <t>16/01/2012</t>
+  </si>
+  <si>
+    <t>THALLIS LUIZ VELOZO GUEDES</t>
+  </si>
+  <si>
+    <t>05/05/2015</t>
+  </si>
+  <si>
+    <t>ROMULO GUSTAVO DANTAS FERNANDES</t>
+  </si>
+  <si>
+    <t>26/10/2018</t>
+  </si>
+  <si>
+    <t>29/12/2025 07:00</t>
+  </si>
+  <si>
+    <t>BENICIO DE LIMA FRANCA</t>
+  </si>
+  <si>
+    <t>08/06/2019</t>
+  </si>
+  <si>
+    <t>ULRICH BARBOZA LOZANO</t>
+  </si>
+  <si>
+    <t>14/02/2021</t>
+  </si>
+  <si>
+    <t>GABRIEL SANTANA DE LIMA</t>
+  </si>
+  <si>
+    <t>03/07/2023</t>
+  </si>
+  <si>
+    <t>THEO LUCCA GUIMARAES DA SILVA</t>
+  </si>
+  <si>
+    <t>27/03/2019</t>
+  </si>
+  <si>
+    <t>R$ 45.001,74</t>
+  </si>
+  <si>
+    <t>R$ 3.296,50</t>
+  </si>
+  <si>
+    <t>R$ 48.298,24</t>
+  </si>
+  <si>
+    <t>MUNICIPIO: RJ - Mesquita</t>
+  </si>
+  <si>
+    <t>RYAN DA SILVA ESCOBAR</t>
+  </si>
+  <si>
+    <t>16/03/2014</t>
+  </si>
+  <si>
+    <t>DAVI LUCAS MARQUES LIMA</t>
+  </si>
+  <si>
+    <t>29/11/2015</t>
+  </si>
+  <si>
+    <t>STELLA ALMEIDA DE SOUZA</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
+  </si>
+  <si>
+    <t>BERNARDO NASCIMENTO DA SOLEDADE LOPES DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>25/03/2016</t>
+  </si>
+  <si>
+    <t>VITOR HUGO MARINS FORDIANI</t>
+  </si>
+  <si>
+    <t>26/05/2022</t>
+  </si>
+  <si>
+    <t>JHONATAN GABRYELL CORREA SILVA</t>
+  </si>
+  <si>
+    <t>24/02/2012</t>
+  </si>
+  <si>
+    <t>SARA SEPULVEDA COSTA</t>
+  </si>
+  <si>
+    <t>08/03/2021</t>
+  </si>
+  <si>
+    <t>R$ 51.066,45</t>
+  </si>
+  <si>
+    <t>R$ 3.453,59</t>
+  </si>
+  <si>
+    <t>R$ 54.520,04</t>
+  </si>
+  <si>
+    <t>MUNICIPIO: RJ - Nova Iguaçu</t>
+  </si>
+  <si>
+    <t>17/12/2025 11:00</t>
+  </si>
+  <si>
+    <t>PEDRO HENRIQUE DE OLIVEIRA CAETANO</t>
+  </si>
+  <si>
+    <t>04/11/2019</t>
+  </si>
+  <si>
+    <t>LAIS PEREIRA ALMEIDA</t>
+  </si>
+  <si>
+    <t>LAVINIA ARAUJO DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>10/08/2020</t>
+  </si>
+  <si>
+    <t>MARIA JULIA OLIVEIRA FIRMINO</t>
+  </si>
+  <si>
+    <t>02/09/2023</t>
+  </si>
+  <si>
+    <t>MICHAEL JANUARIO MACHADO DE FARIAS</t>
+  </si>
+  <si>
+    <t>05/02/2016</t>
+  </si>
+  <si>
+    <t>19/12/2025 07:00</t>
+  </si>
+  <si>
+    <t>R$ 30.700,29</t>
+  </si>
+  <si>
+    <t>R$ 2.835,01</t>
+  </si>
+  <si>
+    <t>R$ 33.535,30</t>
+  </si>
+  <si>
+    <t>MUNICIPIO: RJ - Queimados</t>
+  </si>
+  <si>
+    <t>RAVI BATISTA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>05/09/2022</t>
+  </si>
+  <si>
+    <t>IURY DE SOUZA QUEIROZ</t>
+  </si>
+  <si>
+    <t>14/05/2023</t>
+  </si>
+  <si>
+    <t>GAEL DO NASCIMENTO LEGENTIL</t>
+  </si>
+  <si>
+    <t>01/03/2024</t>
+  </si>
+  <si>
+    <t>ISRAEL PHELIPE ARAUJO DA SILVA NUNES</t>
+  </si>
+  <si>
+    <t>11/11/2020</t>
+  </si>
+  <si>
+    <t>SUSAN SOPHIA OLIVEIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>25/01/2022</t>
+  </si>
+  <si>
+    <t>ENZO GABRIEL VIEIRA LAMEIRA</t>
+  </si>
+  <si>
+    <t>14/02/2012</t>
+  </si>
+  <si>
+    <t>THEO DOS SANTOS DA COSTA</t>
+  </si>
+  <si>
+    <t>29/10/2021</t>
+  </si>
+  <si>
+    <t>22/12/2025 07:00</t>
+  </si>
+  <si>
+    <t>05/01/2026 11:00</t>
+  </si>
+  <si>
+    <t>MICAEL ANTONIO RODRIGUES PONTES</t>
+  </si>
+  <si>
+    <t>01/01/2020</t>
+  </si>
+  <si>
+    <t>KEVIN OLIVEIRA BRITO DE JESUS</t>
+  </si>
+  <si>
+    <t>29/01/2014</t>
+  </si>
+  <si>
+    <t>MIGUEL DE MATTOS SALES</t>
+  </si>
+  <si>
+    <t>28/08/2019</t>
+  </si>
+  <si>
+    <t>ABNNER DOS SANTOS NASCIMENTO</t>
+  </si>
+  <si>
+    <t>15/04/2020</t>
+  </si>
+  <si>
+    <t>BERNARDO DAVI SOUSA VENANCIO</t>
+  </si>
+  <si>
+    <t>29/01/2018</t>
+  </si>
+  <si>
+    <t>09/01/2026 07:00</t>
+  </si>
+  <si>
+    <t>R$ 97.107,66</t>
+  </si>
+  <si>
+    <t>R$ 6.699,74</t>
+  </si>
+  <si>
+    <t>R$ 103.807,40</t>
   </si>
   <si>
     <t>MUNICIPIO: RJ - São João de Meriti</t>
   </si>
   <si>
-    <t xml:space="preserve">Data / Hora </t>
-  </si>
-  <si>
-    <t>Paciente</t>
-  </si>
-  <si>
-    <t>Data de Nascimento</t>
-  </si>
-  <si>
-    <t>Procedimento</t>
-  </si>
-  <si>
-    <t>Quantidade</t>
-  </si>
-  <si>
-    <t>Valor Regional</t>
-  </si>
-  <si>
-    <t>Contraste</t>
-  </si>
-  <si>
-    <t>Sedação</t>
-  </si>
-  <si>
-    <t>Valor SUS</t>
-  </si>
-  <si>
-    <t>Valor Total</t>
-  </si>
-  <si>
-    <t>24/11/2025 11:00</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO LOMAR RIBEIRO</t>
-  </si>
-  <si>
-    <t>23/04/2021</t>
-  </si>
-  <si>
-    <t>PACOTE PRÉ-OPERATÓRIO PEDIÁTRICO CIRURGIA GERAL</t>
-  </si>
-  <si>
-    <t>R$ 290,00</t>
-  </si>
-  <si>
-    <t>R$ 0,00</t>
-  </si>
-  <si>
-    <t>R$ 10,00</t>
-  </si>
-  <si>
-    <t>R$ 300,00</t>
-  </si>
-  <si>
-    <t>MIGUEL LUIZ BASTOS ROCHA DA SILVA</t>
-  </si>
-  <si>
-    <t>28/04/2020</t>
-  </si>
-  <si>
-    <t>28/11/2025 07:00</t>
-  </si>
-  <si>
-    <t>POSTECTOMIA - PEDIATRICO</t>
-  </si>
-  <si>
-    <t>R$ 4.630,88</t>
-  </si>
-  <si>
-    <t>R$ 219,12</t>
-  </si>
-  <si>
-    <t>R$ 4.850,00</t>
-  </si>
-  <si>
-    <t>08/12/2025 11:00</t>
-  </si>
-  <si>
-    <t>LUIZ MATHEUS FERREIRA DOS SANTOS</t>
-  </si>
-  <si>
-    <t>31/01/2014</t>
-  </si>
-  <si>
-    <t>IAN SOUZA DO NASCIMENTO</t>
-  </si>
-  <si>
-    <t>13/10/2015</t>
-  </si>
-  <si>
-    <t>ARTHUR EMANUEL DE OLIVEIRA LIMA</t>
-  </si>
-  <si>
-    <t>25/02/2022</t>
-  </si>
-  <si>
-    <t>GUILHERME ALMEIDA TIBURCIO</t>
-  </si>
-  <si>
-    <t>04/09/2021</t>
-  </si>
-  <si>
-    <t>12/12/2025 07:00</t>
-  </si>
-  <si>
-    <t>HERNIOPLASTIA UMBILICAL - PEDIATRICO</t>
-  </si>
-  <si>
-    <t>R$ 4.802,07</t>
-  </si>
-  <si>
-    <t>R$ 434,99</t>
-  </si>
-  <si>
-    <t>R$ 5.237,06</t>
-  </si>
-  <si>
-    <t>13/12/2025 07:00</t>
-  </si>
-  <si>
-    <t>Total do grupo:</t>
-  </si>
-  <si>
-    <t>R$ 34.498,54</t>
-  </si>
-  <si>
-    <t>R$ 2.025,58</t>
-  </si>
-  <si>
-    <t>R$ 36.524,12</t>
+    <t>CALEB NASCIMENTO FERREIRA</t>
+  </si>
+  <si>
+    <t>09/09/2021</t>
+  </si>
+  <si>
+    <t>DAVI LUCAS NASCIMENTO DA SILVA</t>
+  </si>
+  <si>
+    <t>13/08/2018</t>
+  </si>
+  <si>
+    <t>ARTHUR MIGUEL MARQUES ARCANJO</t>
+  </si>
+  <si>
+    <t>28/01/2020</t>
+  </si>
+  <si>
+    <t>JOAO PEDRO DE AZEVEDO DE SOUZA</t>
+  </si>
+  <si>
+    <t>31/03/2018</t>
+  </si>
+  <si>
+    <t>MICHEL FELICIANO CALIXTE</t>
+  </si>
+  <si>
+    <t>09/10/2022</t>
+  </si>
+  <si>
+    <t>BERNARDO SOUZA CUNHA</t>
+  </si>
+  <si>
+    <t>06/11/2019</t>
+  </si>
+  <si>
+    <t>MIQUEIAS JOSE LIMA SANTOS</t>
+  </si>
+  <si>
+    <t>25/05/2018</t>
+  </si>
+  <si>
+    <t>THEO CABRAL DOS SANTOS</t>
+  </si>
+  <si>
+    <t>09/10/2024</t>
+  </si>
+  <si>
+    <t>YAN SAMUEL GOMES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>07/06/2021</t>
+  </si>
+  <si>
+    <t>R$ 54.501,12</t>
+  </si>
+  <si>
+    <t>R$ 3.323,00</t>
+  </si>
+  <si>
+    <t>R$ 57.824,12</t>
   </si>
   <si>
     <t>MUNICIPIO: RJ - Seropédica</t>
   </si>
   <si>
-    <t>HELENA ROCHA DA SILVA BRAGA</t>
-  </si>
-  <si>
-    <t>25/01/2024</t>
-  </si>
-  <si>
-    <t>NATHALIA DOS SANTOS PEREIRA</t>
-  </si>
-  <si>
-    <t>02/05/2019</t>
-  </si>
-  <si>
-    <t>HERNIOPLASTIA INGUINAL (BILATERAL) - PEDIATRICO</t>
-  </si>
-  <si>
-    <t>R$ 5.239,94</t>
-  </si>
-  <si>
-    <t>R$ 610,06</t>
-  </si>
-  <si>
-    <t>R$ 5.850,00</t>
-  </si>
-  <si>
-    <t>R$ 11.059,88</t>
-  </si>
-  <si>
-    <t>R$ 1.240,12</t>
-  </si>
-  <si>
-    <t>R$ 12.300,00</t>
-  </si>
-  <si>
-    <t>MUNICIPIO: RJ - Queimados</t>
-  </si>
-  <si>
-    <t>VALENTIN DA SILVA RAFAEL</t>
-  </si>
-  <si>
-    <t>23/03/2021</t>
-  </si>
-  <si>
-    <t>DAVI SALOMAO ROCHA GERALDO</t>
-  </si>
-  <si>
-    <t>27/10/2019</t>
-  </si>
-  <si>
-    <t>DANIEL SALOMAO ROCHA GERALDO</t>
-  </si>
-  <si>
-    <t>PEDRO MYGUEL VIEIRA DE SOUZA</t>
-  </si>
-  <si>
-    <t>18/08/2014</t>
-  </si>
-  <si>
-    <t>29/11/2025 07:00</t>
-  </si>
-  <si>
-    <t>R$ 19.683,52</t>
-  </si>
-  <si>
-    <t>R$ 916,48</t>
-  </si>
-  <si>
-    <t>R$ 20.600,00</t>
-  </si>
-  <si>
-    <t>MUNICIPIO: RJ - Mesquita</t>
-  </si>
-  <si>
-    <t>01/12/2025 11:00</t>
-  </si>
-  <si>
-    <t>MATIAS MEDEIROS ROSA</t>
-  </si>
-  <si>
-    <t>18/11/2017</t>
-  </si>
-  <si>
-    <t>LORENA TEIXEIRA ROMEU DIAS</t>
-  </si>
-  <si>
-    <t>12/07/2021</t>
-  </si>
-  <si>
-    <t>06/12/2025 07:00</t>
-  </si>
-  <si>
-    <t>LUIS GUILHERME FREITAS MELLO</t>
-  </si>
-  <si>
-    <t>15/03/2021</t>
-  </si>
-  <si>
-    <t>PABLO MIGUEL ALVES MOREIRA</t>
-  </si>
-  <si>
-    <t>29/08/2023</t>
-  </si>
-  <si>
-    <t>CORRECAO DE HIPOSPADIA (1º TEMPO) - PEDIATRICO</t>
-  </si>
-  <si>
-    <t>R$ 6.235,90</t>
-  </si>
-  <si>
-    <t>R$ 372,96</t>
-  </si>
-  <si>
-    <t>R$ 6.608,86</t>
-  </si>
-  <si>
-    <t>ORQUIDOPEXIA BILATERAL - PEDIATRICO</t>
-  </si>
-  <si>
-    <t>R$ 6.772,46</t>
-  </si>
-  <si>
-    <t>R$ 385,32</t>
-  </si>
-  <si>
-    <t>R$ 7.157,78</t>
-  </si>
-  <si>
-    <t>R$ 44.561,07</t>
-  </si>
-  <si>
-    <t>R$ 3.892,63</t>
-  </si>
-  <si>
-    <t>R$ 48.453,70</t>
-  </si>
-  <si>
-    <t>MUNICIPIO: RJ - Nova Iguaçu</t>
-  </si>
-  <si>
-    <t>MALU GURGEL MARTINS</t>
-  </si>
-  <si>
-    <t>25/02/2019</t>
-  </si>
-  <si>
-    <t>NOAH GABRIEL DOS SANTOS BARBOSA</t>
-  </si>
-  <si>
-    <t>12/05/2022</t>
-  </si>
-  <si>
-    <t>MIRELLA SOPHIA LOPES LIRA</t>
-  </si>
-  <si>
-    <t>21/03/2018</t>
-  </si>
-  <si>
-    <t>MICAELA CARDOSO DA SILVA NEVES</t>
-  </si>
-  <si>
-    <t>03/10/2013</t>
-  </si>
-  <si>
-    <t>CRISTIANI ROCHA DOS SANTOS GONCALVES NASCIMENTO</t>
-  </si>
-  <si>
-    <t>21/03/2022</t>
-  </si>
-  <si>
-    <t>JOHN RICHARD SILVA MENDES</t>
-  </si>
-  <si>
-    <t>07/07/2017</t>
-  </si>
-  <si>
-    <t>PEDRO HENRIQUE MENDES MATHIAS</t>
-  </si>
-  <si>
-    <t>15/07/2018</t>
-  </si>
-  <si>
-    <t>HELOISA LOPES DA COSTA</t>
-  </si>
-  <si>
-    <t>03/01/2022</t>
-  </si>
-  <si>
-    <t>VALENTINA MOREIRA DA SILVA</t>
-  </si>
-  <si>
-    <t>19/12/2018</t>
-  </si>
-  <si>
-    <t>ARTHUR SANTOS MOLINA</t>
-  </si>
-  <si>
-    <t>29/10/2017</t>
-  </si>
-  <si>
-    <t>05/12/2025 07:00</t>
-  </si>
-  <si>
-    <t>LORENZO BATISTA GOMES</t>
-  </si>
-  <si>
-    <t>01/05/2019</t>
-  </si>
-  <si>
-    <t>LORENZO DOMINGOS FERREIRA DE OLIVEIRA</t>
-  </si>
-  <si>
-    <t>16/09/2018</t>
-  </si>
-  <si>
-    <t>GABRIEL SILVA DE SOUZA</t>
-  </si>
-  <si>
-    <t>26/06/2017</t>
-  </si>
-  <si>
-    <t>MANUELLA MENDES MARCAL</t>
-  </si>
-  <si>
-    <t>20/03/2019</t>
-  </si>
-  <si>
-    <t>R$ 87.370,97</t>
-  </si>
-  <si>
-    <t>R$ 7.762,57</t>
-  </si>
-  <si>
-    <t>R$ 95.133,54</t>
-  </si>
-  <si>
-    <t>MUNICIPIO: RJ - Belford Roxo</t>
-  </si>
-  <si>
-    <t>EMANUEL SILVA VARELA</t>
-  </si>
-  <si>
-    <t>28/10/2019</t>
-  </si>
-  <si>
-    <t>DIEGO LUCAS DA SILVA</t>
-  </si>
-  <si>
-    <t>01/12/2018</t>
-  </si>
-  <si>
-    <t>DAVI CRISTIAN LIMA DA CRUZ</t>
-  </si>
-  <si>
-    <t>28/07/2012</t>
-  </si>
-  <si>
-    <t>CHRISTOPHER COSTA DAMASCENO</t>
-  </si>
-  <si>
-    <t>07/07/2016</t>
-  </si>
-  <si>
-    <t>R$ 36.132,62</t>
-  </si>
-  <si>
-    <t>R$ 2.550,36</t>
-  </si>
-  <si>
-    <t>R$ 38.682,98</t>
-  </si>
-  <si>
-    <t>MUNICIPIO: RJ - Magé</t>
-  </si>
-  <si>
-    <t>GUILHERME FERREIRA DA COSTA</t>
-  </si>
-  <si>
-    <t>11/04/2020</t>
-  </si>
-  <si>
-    <t>12/12/2025 11:00</t>
-  </si>
-  <si>
-    <t>R$ 14.962,89</t>
-  </si>
-  <si>
-    <t>R$ 1.274,17</t>
-  </si>
-  <si>
-    <t>R$ 16.237,06</t>
+    <t>Davi luiz sant anna da cruz</t>
+  </si>
+  <si>
+    <t>04/02/2020</t>
+  </si>
+  <si>
+    <t>KAYKE GALDINO DA SILVA</t>
+  </si>
+  <si>
+    <t>15/09/2022</t>
+  </si>
+  <si>
+    <t>ARTHUR CAVALCANTE ROSA ALVES</t>
+  </si>
+  <si>
+    <t>11/04/2013</t>
+  </si>
+  <si>
+    <t>VINICIUS DA SILVA PEREIRA</t>
+  </si>
+  <si>
+    <t>14/02/2015</t>
+  </si>
+  <si>
+    <t>BRYAN BARBOSA SILVEIRA</t>
+  </si>
+  <si>
+    <t>28/03/2024</t>
+  </si>
+  <si>
+    <t>LUCAS PEREIRA ALVES</t>
+  </si>
+  <si>
+    <t>08/01/2020</t>
+  </si>
+  <si>
+    <t>R$ 51.750,88</t>
+  </si>
+  <si>
+    <t>R$ 3.631,02</t>
+  </si>
+  <si>
+    <t>R$ 55.381,90</t>
   </si>
   <si>
     <t>Quantidade total</t>
@@ -458,7 +587,7 @@
     <t>Total regional</t>
   </si>
   <si>
-    <t>R$ 248.269,49</t>
+    <t>R$ 433.316,91</t>
   </si>
   <si>
     <t>Total contraste</t>
@@ -470,13 +599,13 @@
     <t>Total valor SUS</t>
   </si>
   <si>
-    <t>R$ 19.661,91</t>
+    <t>R$ 31.126,15</t>
   </si>
   <si>
     <t>Total valor geral</t>
   </si>
   <si>
-    <t>R$ 267.931,40</t>
+    <t>R$ 464.443,06</t>
   </si>
 </sst>
 </file>
@@ -957,16 +1086,16 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J112"/>
+  <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="J112" sqref="J112"/>
+      <selection activeCell="J170" sqref="J170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="37.419" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="56.558" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="58.843" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="24.565" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="56.558" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="22.28" bestFit="true" customWidth="true" style="0"/>
@@ -1099,22 +1228,22 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="C10" s="7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E10" s="7">
         <v>1</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>18</v>
@@ -1123,21 +1252,21 @@
         <v>18</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="10" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>16</v>
@@ -1163,13 +1292,13 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>16</v>
@@ -1195,13 +1324,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="10" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>16</v>
@@ -1227,13 +1356,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
@@ -1259,22 +1388,22 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="10" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E15" s="10">
         <v>1</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>18</v>
@@ -1283,15 +1412,15 @@
         <v>18</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>35</v>
@@ -1300,13 +1429,13 @@
         <v>36</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E16" s="7">
         <v>1</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>18</v>
@@ -1315,30 +1444,30 @@
         <v>18</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="10" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E17" s="10">
         <v>1</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>18</v>
@@ -1347,30 +1476,30 @@
         <v>18</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E18" s="7">
         <v>1</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>18</v>
@@ -1379,31 +1508,31 @@
         <v>18</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="10">
-        <v>1</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>39</v>
-      </c>
       <c r="G19" s="12" t="s">
         <v>18</v>
       </c>
@@ -1411,131 +1540,158 @@
         <v>18</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="10">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="13" t="s">
+      <c r="D22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="14">
-        <v>13</v>
-      </c>
-      <c r="F21" s="13" t="s">
+      <c r="J22" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>12</v>
+      <c r="A23" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="10">
+        <v>1</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="7" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E24" s="7">
         <v>1</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="G24" s="9" t="s">
         <v>18</v>
@@ -1544,30 +1700,30 @@
         <v>18</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="10" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E25" s="10">
         <v>1</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>18</v>
@@ -1576,30 +1732,30 @@
         <v>18</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="C26" s="7" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E26" s="7">
         <v>1</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>18</v>
@@ -1608,378 +1764,405 @@
         <v>18</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="10" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="10">
+        <v>1</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="10" t="s">
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="E28" s="7">
+        <v>1</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J28" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="10">
-        <v>1</v>
-      </c>
-      <c r="F27" s="12" t="s">
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="10">
+        <v>1</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="12" t="s">
+      <c r="E30" s="7">
+        <v>1</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="G30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="13" t="s">
+      <c r="J30" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="10">
+        <v>1</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="10">
+        <v>1</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="14">
-        <v>4</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="13" t="s">
+      <c r="J34" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="J28" s="13" t="s">
+      <c r="B35" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="10">
+        <v>1</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="10">
+        <v>1</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="3" t="s">
+      <c r="E38" s="7">
+        <v>1</v>
+      </c>
+      <c r="F38" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="8" t="s">
+      <c r="G38" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="J38" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="7">
-        <v>1</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="10">
-        <v>1</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="10">
-        <v>1</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I34" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="10">
-        <v>1</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="10">
-        <v>1</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="13" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E39" s="14">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G39" s="13" t="s">
         <v>18</v>
@@ -1988,15 +2171,15 @@
         <v>18</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2042,13 +2225,13 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>16</v>
@@ -2074,13 +2257,13 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>16</v>
@@ -2106,22 +2289,22 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="E44" s="7">
         <v>1</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>18</v>
@@ -2130,62 +2313,62 @@
         <v>18</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D45" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="10">
+        <v>1</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J45" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="E45" s="10">
-        <v>1</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="J45" s="12" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="7" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E46" s="7">
         <v>1</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="G46" s="9" t="s">
         <v>18</v>
@@ -2194,30 +2377,30 @@
         <v>18</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="10" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E47" s="10">
         <v>1</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="G47" s="12" t="s">
         <v>18</v>
@@ -2226,31 +2409,31 @@
         <v>18</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="7">
+        <v>1</v>
+      </c>
+      <c r="F48" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48" s="7">
-        <v>1</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>53</v>
-      </c>
       <c r="G48" s="9" t="s">
         <v>18</v>
       </c>
@@ -2258,30 +2441,30 @@
         <v>18</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="10" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="E49" s="10">
         <v>1</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G49" s="12" t="s">
         <v>18</v>
@@ -2290,30 +2473,30 @@
         <v>18</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>73</v>
-      </c>
       <c r="C50" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E50" s="7">
         <v>1</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G50" s="9" t="s">
         <v>18</v>
@@ -2322,30 +2505,30 @@
         <v>18</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="10" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E51" s="10">
         <v>1</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G51" s="12" t="s">
         <v>18</v>
@@ -2354,30 +2537,30 @@
         <v>18</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="7" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="E52" s="7">
         <v>1</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="G52" s="9" t="s">
         <v>18</v>
@@ -2386,250 +2569,250 @@
         <v>18</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" s="10">
+        <v>1</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" s="7">
+        <v>1</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E55" s="10">
+        <v>1</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" s="7">
+        <v>1</v>
+      </c>
+      <c r="F56" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D53" s="11" t="s">
+      <c r="G56" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" s="10">
+        <v>1</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" s="14">
+        <v>16</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J58" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E53" s="10">
-        <v>1</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I53" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="J53" s="12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E54" s="14">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J60" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I54" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J54" s="13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" s="7">
-        <v>1</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" s="10">
-        <v>1</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H58" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I58" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J58" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="7">
-        <v>1</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I59" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J59" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" s="10">
-        <v>1</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I60" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J60" s="12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>16</v>
@@ -2655,13 +2838,13 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>16</v>
@@ -2687,13 +2870,13 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>16</v>
@@ -2719,22 +2902,22 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E64" s="10">
         <v>1</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="G64" s="12" t="s">
         <v>18</v>
@@ -2743,30 +2926,30 @@
         <v>18</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E65" s="7">
         <v>1</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="G65" s="9" t="s">
         <v>18</v>
@@ -2775,30 +2958,30 @@
         <v>18</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E66" s="10">
         <v>1</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="G66" s="12" t="s">
         <v>18</v>
@@ -2807,30 +2990,30 @@
         <v>18</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="7" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E67" s="7">
         <v>1</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G67" s="9" t="s">
         <v>18</v>
@@ -2839,30 +3022,30 @@
         <v>18</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="10" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E68" s="10">
         <v>1</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G68" s="12" t="s">
         <v>18</v>
@@ -2871,30 +3054,30 @@
         <v>18</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="7" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E69" s="7">
         <v>1</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G69" s="9" t="s">
         <v>18</v>
@@ -2903,30 +3086,30 @@
         <v>18</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="10" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="E70" s="10">
         <v>1</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G70" s="12" t="s">
         <v>18</v>
@@ -2935,30 +3118,30 @@
         <v>18</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="7" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="B71" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C71" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="D71" s="8" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E71" s="7">
         <v>1</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G71" s="9" t="s">
         <v>18</v>
@@ -2967,30 +3150,30 @@
         <v>18</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="10" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E72" s="10">
         <v>1</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G72" s="12" t="s">
         <v>18</v>
@@ -2999,30 +3182,30 @@
         <v>18</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="7" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E73" s="7">
         <v>1</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="G73" s="9" t="s">
         <v>18</v>
@@ -3031,62 +3214,62 @@
         <v>18</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="10" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D74" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E74" s="10">
+        <v>1</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J74" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="E74" s="10">
-        <v>1</v>
-      </c>
-      <c r="F74" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G74" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H74" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I74" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="J74" s="12" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="7" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="B75" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C75" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="D75" s="8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E75" s="7">
         <v>1</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G75" s="9" t="s">
         <v>18</v>
@@ -3095,30 +3278,30 @@
         <v>18</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="10" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E76" s="10">
         <v>1</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="G76" s="12" t="s">
         <v>18</v>
@@ -3127,158 +3310,131 @@
         <v>18</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="7" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E77" s="7">
         <v>1</v>
       </c>
       <c r="F77" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E78" s="14">
         <v>17</v>
       </c>
-      <c r="G77" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H77" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I77" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J77" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10">
-      <c r="A78" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D78" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E78" s="10">
-        <v>1</v>
-      </c>
-      <c r="F78" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H78" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I78" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J78" s="12" t="s">
-        <v>20</v>
+      <c r="F78" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="J78" s="13" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E79" s="7">
-        <v>1</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I79" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J79" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="A79" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E80" s="10">
-        <v>1</v>
-      </c>
-      <c r="F80" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G80" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H80" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I80" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J80" s="12" t="s">
-        <v>41</v>
+      <c r="A80" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="7" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E81" s="7">
         <v>1</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G81" s="9" t="s">
         <v>18</v>
@@ -3287,30 +3443,30 @@
         <v>18</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="10" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E82" s="10">
         <v>1</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G82" s="12" t="s">
         <v>18</v>
@@ -3319,30 +3475,30 @@
         <v>18</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="7" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="E83" s="7">
         <v>1</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G83" s="9" t="s">
         <v>18</v>
@@ -3351,30 +3507,30 @@
         <v>18</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="10" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E84" s="10">
         <v>1</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G84" s="12" t="s">
         <v>18</v>
@@ -3383,30 +3539,30 @@
         <v>18</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="7" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E85" s="7">
         <v>1</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G85" s="9" t="s">
         <v>18</v>
@@ -3415,30 +3571,30 @@
         <v>18</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="10" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E86" s="10">
         <v>1</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="G86" s="12" t="s">
         <v>18</v>
@@ -3447,30 +3603,30 @@
         <v>18</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="J86" s="12" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="7" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E87" s="7">
         <v>1</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="G87" s="9" t="s">
         <v>18</v>
@@ -3479,99 +3635,126 @@
         <v>18</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E88" s="10">
+        <v>1</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I88" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E88" s="14">
-        <v>31</v>
-      </c>
-      <c r="F88" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="G88" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H88" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I88" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="J88" s="13" t="s">
-        <v>125</v>
+      <c r="J88" s="12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
+      <c r="A89" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E89" s="7">
+        <v>1</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H89" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I90" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J90" s="6" t="s">
-        <v>12</v>
+      <c r="A90" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E90" s="10">
+        <v>1</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I90" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J90" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="7" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="E91" s="7">
         <v>1</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="G91" s="9" t="s">
         <v>18</v>
@@ -3580,126 +3763,99 @@
         <v>18</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E92" s="10">
-        <v>1</v>
-      </c>
-      <c r="F92" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G92" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H92" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I92" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J92" s="12" t="s">
-        <v>20</v>
+      <c r="A92" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E92" s="14">
+        <v>11</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H92" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I92" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J92" s="13" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E93" s="7">
-        <v>1</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G93" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H93" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I93" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J93" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="A93" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E94" s="10">
-        <v>1</v>
-      </c>
-      <c r="F94" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G94" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H94" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I94" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J94" s="12" t="s">
-        <v>20</v>
+      <c r="A94" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E95" s="7">
         <v>1</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G95" s="9" t="s">
         <v>18</v>
@@ -3708,30 +3864,30 @@
         <v>18</v>
       </c>
       <c r="I95" s="9" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E96" s="10">
         <v>1</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="G96" s="12" t="s">
         <v>18</v>
@@ -3740,30 +3896,30 @@
         <v>18</v>
       </c>
       <c r="I96" s="12" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J96" s="12" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E97" s="7">
         <v>1</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G97" s="9" t="s">
         <v>18</v>
@@ -3772,30 +3928,30 @@
         <v>18</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E98" s="10">
         <v>1</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G98" s="12" t="s">
         <v>18</v>
@@ -3804,30 +3960,30 @@
         <v>18</v>
       </c>
       <c r="I98" s="12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J98" s="12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B99" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C99" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C99" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="D99" s="8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E99" s="7">
         <v>1</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G99" s="9" t="s">
         <v>18</v>
@@ -3836,30 +3992,30 @@
         <v>18</v>
       </c>
       <c r="I99" s="9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="E100" s="10">
         <v>1</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="G100" s="12" t="s">
         <v>18</v>
@@ -3868,131 +4024,158 @@
         <v>18</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B101" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101" s="7">
+        <v>1</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I101" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E102" s="10">
+        <v>1</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G102" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H102" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I102" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J102" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E103" s="7">
+        <v>1</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I103" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C104" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C101" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E101" s="7">
-        <v>1</v>
-      </c>
-      <c r="F101" s="9" t="s">
+      <c r="D104" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G101" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H101" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I101" s="9" t="s">
+      <c r="E104" s="10">
+        <v>1</v>
+      </c>
+      <c r="F104" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="J101" s="9" t="s">
+      <c r="G104" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I104" s="12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
-      <c r="A102" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E102" s="14">
-        <v>11</v>
-      </c>
-      <c r="F102" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="G102" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H102" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I102" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="J102" s="13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10">
-      <c r="A103" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
-    </row>
-    <row r="104" spans="1:10">
-      <c r="A104" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H104" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I104" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J104" s="6" t="s">
-        <v>12</v>
+      <c r="J104" s="12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="7" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E105" s="7">
         <v>1</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="G105" s="9" t="s">
         <v>18</v>
@@ -4001,30 +4184,30 @@
         <v>18</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="10" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E106" s="10">
         <v>1</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="G106" s="12" t="s">
         <v>18</v>
@@ -4033,30 +4216,30 @@
         <v>18</v>
       </c>
       <c r="I106" s="12" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="J106" s="12" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="7" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E107" s="7">
         <v>1</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G107" s="9" t="s">
         <v>18</v>
@@ -4065,124 +4248,1926 @@
         <v>18</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E108" s="10">
+        <v>1</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H108" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I108" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J108" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E109" s="7">
+        <v>1</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I109" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J109" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E110" s="10">
+        <v>1</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H110" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I110" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J110" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E111" s="7">
+        <v>1</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H111" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I111" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J111" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E112" s="10">
+        <v>1</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H112" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I112" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J112" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E113" s="7">
+        <v>1</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H113" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I113" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J113" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B114" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E114" s="10">
+        <v>1</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G114" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H114" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I114" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J114" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E115" s="7">
+        <v>1</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H115" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I115" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J115" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E116" s="10">
+        <v>1</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H116" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I116" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J116" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C117" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="D117" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E117" s="7">
+        <v>1</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J117" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E118" s="10">
+        <v>1</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H118" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I118" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J118" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E119" s="7">
+        <v>1</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G119" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H119" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I119" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J119" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B120" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C120" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C108" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D108" s="11" t="s">
+      <c r="D120" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E120" s="10">
+        <v>1</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G120" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H120" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I120" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J120" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E121" s="7">
+        <v>1</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H121" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I121" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J121" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E122" s="10">
+        <v>1</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H122" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I122" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J122" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E123" s="7">
+        <v>1</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H123" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I123" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J123" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E124" s="10">
+        <v>1</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H124" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I124" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J124" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E125" s="14">
+        <v>30</v>
+      </c>
+      <c r="F125" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G125" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H125" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I125" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J125" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H127" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I127" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J127" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E128" s="7">
+        <v>1</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G128" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H128" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I128" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J128" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E129" s="10">
+        <v>1</v>
+      </c>
+      <c r="F129" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G129" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H129" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I129" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J129" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E130" s="7">
+        <v>1</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G130" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H130" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I130" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J130" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B131" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E131" s="10">
+        <v>1</v>
+      </c>
+      <c r="F131" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G131" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H131" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I131" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J131" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E132" s="7">
+        <v>1</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G132" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H132" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I132" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J132" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E133" s="10">
+        <v>1</v>
+      </c>
+      <c r="F133" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G133" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H133" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I133" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J133" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E134" s="7">
+        <v>1</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G134" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H134" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I134" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J134" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E135" s="10">
+        <v>1</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G135" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H135" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I135" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J135" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E136" s="7">
+        <v>1</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G136" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H136" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I136" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J136" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E137" s="10">
+        <v>1</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G137" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H137" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I137" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J137" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E108" s="10">
-        <v>1</v>
-      </c>
-      <c r="F108" s="12" t="s">
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E138" s="7">
+        <v>1</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G138" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H138" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I138" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J138" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E139" s="10">
+        <v>1</v>
+      </c>
+      <c r="F139" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G139" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H139" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I139" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J139" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E140" s="7">
+        <v>1</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G140" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H140" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I140" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J140" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D141" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E141" s="10">
+        <v>1</v>
+      </c>
+      <c r="F141" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G141" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H141" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I141" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J141" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E142" s="7">
+        <v>1</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G142" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H142" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I142" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J142" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B143" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E143" s="10">
+        <v>1</v>
+      </c>
+      <c r="F143" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G143" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H143" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I143" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J143" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E144" s="7">
+        <v>1</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G144" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H144" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I144" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J144" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E145" s="10">
+        <v>1</v>
+      </c>
+      <c r="F145" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G145" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H145" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I145" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J145" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E146" s="7">
+        <v>1</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G146" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H146" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I146" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J146" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E147" s="10">
+        <v>1</v>
+      </c>
+      <c r="F147" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G147" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H147" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I147" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J147" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E148" s="14">
+        <v>20</v>
+      </c>
+      <c r="F148" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="G148" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H148" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I148" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="J148" s="13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="3"/>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G150" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H150" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I150" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J150" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E151" s="7">
+        <v>1</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G151" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H151" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I151" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J151" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E152" s="10">
+        <v>1</v>
+      </c>
+      <c r="F152" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G152" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H152" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I152" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J152" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E153" s="7">
+        <v>1</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G153" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H153" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I153" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J153" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E154" s="10">
+        <v>1</v>
+      </c>
+      <c r="F154" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G154" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H154" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I154" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J154" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E155" s="7">
+        <v>1</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G155" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H155" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I155" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J155" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E156" s="10">
+        <v>1</v>
+      </c>
+      <c r="F156" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G156" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H156" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I156" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J156" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E157" s="7">
+        <v>1</v>
+      </c>
+      <c r="F157" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G157" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H157" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I157" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J157" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E158" s="10">
+        <v>1</v>
+      </c>
+      <c r="F158" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G158" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H158" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I158" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J158" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D159" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G108" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H108" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I108" s="12" t="s">
+      <c r="E159" s="7">
+        <v>1</v>
+      </c>
+      <c r="F159" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="J108" s="12" t="s">
+      <c r="G159" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H159" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I159" s="9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
-      <c r="A109" s="13" t="s">
+      <c r="J159" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="A160" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B160" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E160" s="10">
+        <v>1</v>
+      </c>
+      <c r="F160" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G160" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H160" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I160" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J160" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E161" s="7">
+        <v>1</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G161" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H161" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I161" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J161" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E162" s="10">
+        <v>1</v>
+      </c>
+      <c r="F162" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G162" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H162" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I162" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J162" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E163" s="7">
+        <v>1</v>
+      </c>
+      <c r="F163" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G163" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H163" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I163" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E109" s="14">
-        <v>4</v>
-      </c>
-      <c r="F109" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="G109" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H109" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I109" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="J109" s="13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10">
-      <c r="E111" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="F111" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="G111" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="H111" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="I111" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="J111" s="13" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10">
-      <c r="E112" s="15">
-        <v>83</v>
-      </c>
-      <c r="F112" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="G112" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H112" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I112" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="J112" s="16" t="s">
-        <v>153</v>
+      <c r="J163" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E164" s="10">
+        <v>1</v>
+      </c>
+      <c r="F164" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G164" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H164" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I164" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J164" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E165" s="7">
+        <v>1</v>
+      </c>
+      <c r="F165" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G165" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H165" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I165" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J165" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E166" s="10">
+        <v>1</v>
+      </c>
+      <c r="F166" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G166" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H166" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I166" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J166" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E167" s="14">
+        <v>16</v>
+      </c>
+      <c r="F167" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="G167" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H167" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I167" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="J167" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="E169" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="F169" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G169" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="H169" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="I169" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="J169" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="E170" s="15">
+        <v>141</v>
+      </c>
+      <c r="F170" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="G170" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H170" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I170" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="J170" s="16" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:J29"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A40:J40"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A89:J89"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A103:J103"/>
-    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A59:J59"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A79:J79"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A93:J93"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A126:J126"/>
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="A149:J149"/>
+    <mergeCell ref="A167:D167"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
